--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1779.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1779.xlsx
@@ -351,13 +351,13 @@
         <v>0.869862142193769</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.159815811399988</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1779.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1779.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.869862142193769</v>
+        <v>0.7333541512489319</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.397609710693359</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.485628128051758</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.821876287460327</v>
       </c>
       <c r="E1">
-        <v>1.159815811399988</v>
+        <v>1.133834481239319</v>
       </c>
     </row>
   </sheetData>
